--- a/Simcolourproject_online/Stimconditions.xlsx
+++ b/Simcolourproject_online/Stimconditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bethfisher/Documents/Simcolourproject_online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049148CD-F234-204E-9C8C-76486BD842FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F23E9-E2EA-A847-8F10-EAC2F5FED397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14260" xr2:uid="{BDF13491-496C-7F43-97EE-7F6D8E9C9B8D}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="5">
   <si>
-    <t>Colour_1</t>
-  </si>
-  <si>
-    <t>Colour_2</t>
-  </si>
-  <si>
     <t>Ecc</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>FF</t>
+  </si>
+  <si>
+    <t>Colour1</t>
+  </si>
+  <si>
+    <t>Colour2</t>
   </si>
 </sst>
 </file>
@@ -98,10 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848738C4-F111-B948-BAB2-2ED1798C052A}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,46 +432,46 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="3">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -481,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -492,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -504,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -516,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -528,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -540,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -552,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -564,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -576,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -588,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -610,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -632,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -643,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -654,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -665,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -687,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -731,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -753,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -764,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -775,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -786,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -797,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -808,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -830,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -863,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -874,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -885,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -896,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1006,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1017,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1116,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1160,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1314,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1358,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1369,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1402,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1490,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1501,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1512,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1523,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1545,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1776,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1798,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1820,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1842,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1853,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1864,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1886,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1941,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1974,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1985,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2029,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2040,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2062,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2073,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2084,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2106,7 +2107,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2117,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2139,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2161,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2172,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2205,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
